--- a/stage/Workbook1.xlsx
+++ b/stage/Workbook1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1563,11 +1563,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2046379632"/>
-        <c:axId val="2046384304"/>
+        <c:axId val="2100032000"/>
+        <c:axId val="2100008144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2046379632"/>
+        <c:axId val="2100032000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1610,7 +1610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2046384304"/>
+        <c:crossAx val="2100008144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1618,7 +1618,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2046384304"/>
+        <c:axId val="2100008144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1669,7 +1669,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2046379632"/>
+        <c:crossAx val="2100032000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1733,6 +1733,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2629,11 +2630,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2117481408"/>
-        <c:axId val="2115004176"/>
+        <c:axId val="2139726256"/>
+        <c:axId val="2140099312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2117481408"/>
+        <c:axId val="2139726256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2676,7 +2677,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2115004176"/>
+        <c:crossAx val="2140099312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2684,7 +2685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115004176"/>
+        <c:axId val="2140099312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2735,7 +2736,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117481408"/>
+        <c:crossAx val="2139726256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2749,6 +2750,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2830,6 +2832,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3716,11 +3719,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2117448880"/>
-        <c:axId val="2115274320"/>
+        <c:axId val="2120799984"/>
+        <c:axId val="2115190720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2117448880"/>
+        <c:axId val="2120799984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3763,7 +3766,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2115274320"/>
+        <c:crossAx val="2115190720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3771,7 +3774,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115274320"/>
+        <c:axId val="2115190720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3822,7 +3825,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2117448880"/>
+        <c:crossAx val="2120799984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3836,6 +3839,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3917,6 +3921,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4035,11 +4040,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2102568752"/>
-        <c:axId val="2102572064"/>
+        <c:axId val="2139963344"/>
+        <c:axId val="2139804400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2102568752"/>
+        <c:axId val="2139963344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4082,7 +4087,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2102572064"/>
+        <c:crossAx val="2139804400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4090,7 +4095,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2102572064"/>
+        <c:axId val="2139804400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4141,7 +4146,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2102568752"/>
+        <c:crossAx val="2139963344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4205,6 +4210,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5165,11 +5171,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2098216832"/>
-        <c:axId val="2098204400"/>
+        <c:axId val="2142143104"/>
+        <c:axId val="2143768320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2098216832"/>
+        <c:axId val="2142143104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5212,7 +5218,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2098204400"/>
+        <c:crossAx val="2143768320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5220,7 +5226,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2098204400"/>
+        <c:axId val="2143768320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5271,7 +5277,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2098216832"/>
+        <c:crossAx val="2142143104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5285,6 +5291,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5366,6 +5373,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5583,11 +5591,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2099489264"/>
-        <c:axId val="2099698176"/>
+        <c:axId val="2099895648"/>
+        <c:axId val="2100139968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2099489264"/>
+        <c:axId val="2099895648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5630,7 +5638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2099698176"/>
+        <c:crossAx val="2100139968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5638,7 +5646,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099698176"/>
+        <c:axId val="2100139968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5689,7 +5697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2099489264"/>
+        <c:crossAx val="2099895648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5753,6 +5761,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5786,7 +5795,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -18464,11 +18473,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2102277616"/>
-        <c:axId val="2102279264"/>
+        <c:axId val="2104047296"/>
+        <c:axId val="2141593440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2102277616"/>
+        <c:axId val="2104047296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18511,7 +18520,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2102279264"/>
+        <c:crossAx val="2141593440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18519,7 +18528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2102279264"/>
+        <c:axId val="2141593440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18570,7 +18579,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2102277616"/>
+        <c:crossAx val="2104047296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18584,6 +18593,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18699,7 +18709,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -19245,11 +19255,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2099983920"/>
-        <c:axId val="2100006448"/>
+        <c:axId val="2103178016"/>
+        <c:axId val="2119762400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2099983920"/>
+        <c:axId val="2103178016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19292,7 +19302,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2100006448"/>
+        <c:crossAx val="2119762400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19300,7 +19310,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100006448"/>
+        <c:axId val="2119762400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19351,7 +19361,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2099983920"/>
+        <c:crossAx val="2103178016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29945,11 +29955,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="2121939360"/>
-        <c:axId val="2113958480"/>
+        <c:axId val="2140288400"/>
+        <c:axId val="2140291584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2121939360"/>
+        <c:axId val="2140288400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29992,7 +30002,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113958480"/>
+        <c:crossAx val="2140291584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -30000,7 +30010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113958480"/>
+        <c:axId val="2140291584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30051,7 +30061,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121939360"/>
+        <c:crossAx val="2140288400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -35338,11 +35348,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="result" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="list" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="list" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="result" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36799,7 +36809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="F8" zoomScale="125" workbookViewId="0">
       <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
@@ -37324,8 +37334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView topLeftCell="Z1" zoomScale="81" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42387,7 +42397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X129"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
@@ -48015,8 +48025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X77"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="82" zoomScaleNormal="113" zoomScalePageLayoutView="113" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="F44" zoomScale="152" zoomScaleNormal="113" zoomScalePageLayoutView="113" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53532,8 +53542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="84" zoomScaleNormal="158" zoomScalePageLayoutView="158" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+    <sheetView topLeftCell="A11" zoomScale="84" zoomScaleNormal="158" zoomScalePageLayoutView="158" workbookViewId="0">
+      <selection activeCell="AS12" sqref="AS12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
